--- a/mcmaster_excel/Steel_Tamper-Resistant_One-Way_Round_Head_Screws.xlsx
+++ b/mcmaster_excel/Steel_Tamper-Resistant_One-Way_Round_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,119 +434,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.211"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>90287A837</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$14.50</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,12 +551,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>90287A838</t>
+          <t>90287A837</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>$14.50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,12 +608,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90287A839</t>
+          <t>90287A838</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -660,7 +630,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,12 +665,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90287A841</t>
+          <t>90287A839</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +687,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -727,12 +697,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.260"</t>
+          <t>0.211"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.103"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,17 +722,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90287A842</t>
+          <t>90287A841</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15.24</t>
+          <t>15.67</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -774,7 +744,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -799,7 +769,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -809,12 +779,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90287A146</t>
+          <t>90287A842</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -831,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -866,12 +836,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>90287A148</t>
+          <t>90287A146</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18.24</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -888,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -923,12 +893,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90287A151</t>
+          <t>90287A148</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20.51</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -945,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,12 +950,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90287A153</t>
+          <t>90287A151</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>20.51</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1012,12 +982,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.309"</t>
+          <t>0.260"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.103"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1027,7 +997,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1037,17 +1007,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90287A843</t>
+          <t>90287A153</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>21.58</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1059,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,12 +1064,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90287A844</t>
+          <t>90287A843</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>17.46</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1116,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1141,7 +1111,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1151,12 +1121,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90287A194</t>
+          <t>90287A844</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1173,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1208,12 +1178,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90287A197</t>
+          <t>90287A194</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1230,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,12 +1235,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90287A199</t>
+          <t>90287A197</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>23.88</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1287,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,12 +1292,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90287A203</t>
+          <t>90287A199</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>23.88</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1344,7 +1314,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1354,12 +1324,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.309"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1379,17 +1349,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90287A242</t>
+          <t>90287A203</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>29.16</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1401,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1436,12 +1406,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90287A245</t>
+          <t>90287A242</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25.35</t>
+          <t>21.61</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1458,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1493,12 +1463,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90287A247</t>
+          <t>90287A245</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1515,7 +1485,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1545,17 +1515,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90287A251</t>
+          <t>90287A247</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1572,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1597,27 +1567,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90287A846</t>
+          <t>90287A251</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19.10</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1629,7 +1599,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1664,12 +1634,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90287A847</t>
+          <t>90287A846</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>19.10</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1686,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1711,7 +1681,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1721,12 +1691,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90287A829</t>
+          <t>90287A847</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>21.60</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1743,7 +1713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1778,12 +1748,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90287A831</t>
+          <t>90287A829</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25.25</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1770,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1835,12 +1805,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90287A833</t>
+          <t>90287A831</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>25.25</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1857,7 +1827,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1887,17 +1857,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90287A836</t>
+          <t>90287A833</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1914,7 +1884,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1924,12 +1894,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.472"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1939,7 +1909,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1949,17 +1919,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90287A848</t>
+          <t>90287A836</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1971,7 +1941,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1996,7 +1966,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2006,12 +1976,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90287A537</t>
+          <t>90287A848</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2028,7 +1998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2063,12 +2033,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90287A540</t>
+          <t>90287A537</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2085,7 +2055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2120,12 +2090,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90287A542</t>
+          <t>90287A540</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2142,55 +2112,112 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.472"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>90287A542</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.472"</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>ASME B18.6.3</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>90287A546</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>27.86</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
